--- a/percentiles_92.xlsx
+++ b/percentiles_92.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\GIC\ENIGH_1984\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A0D4D-836C-4EFC-9C98-24222FC63274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>INGRESO CORRIENTE</t>
+  </si>
+  <si>
+    <t>Percentil</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +83,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +169,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +221,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,523 +414,832 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>INGRESO CORRIENTE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>4853052.589227514</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4853052.5892275143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>305241.61269186</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>305241.61269186001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>441812.6316980924</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>441812.63169809239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>546084.5476604201</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>546084.54766042007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>640786.1493325244</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>640786.14933252439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>734667.0470076648</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>734667.04700766481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>798305.3683347834</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>798305.36833478336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>849454.6100358816</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>849454.61003588163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>905658.9830751023</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>905658.98307510233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>974765.3159891765</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>974765.31598917651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>1038683.160752228</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1087311.857626737</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1087311.8576267371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>1127359.989513515</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>1163348.251966238</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1208345.980655294</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1208345.9806552939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>1252273.931490245</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>1310223.751458433</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1355326.745295975</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1355326.7452959749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1403916.274219635</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1403916.2742196349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1449197.261925341</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1449197.2619253411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1488558.008446739</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1488558.0084467391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>1525898.435919466</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>1572850.063956517</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>1610790.579175357</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1656698.098582276</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1656698.0985822759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1711071.443732072</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1711071.4437320719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>1753796.56681955</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>1792592.525546253</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>1833735.571985892</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>1884706.930622882</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1941373.84791349</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1941373.8479134899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1982609.113816294</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1982609.1138162939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>2027732.941858035</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>2075656.409399274</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2122564.422636259</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2122564.4226362589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2172885.614190197</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2172885.6141901971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2224700.493702297</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2224700.4937022971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>2266912.572684126</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2321206.558783312</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2321206.5587833119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2381138.623076997</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2381138.6230769972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2426579.778597361</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2426579.7785973609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2485986.837271191</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2485986.8372711912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2545864.837881631</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2545864.8378816312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2596434.509093837</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2596434.5090938369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>2630967.119959835</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2675862.135914151</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2675862.1359141511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2708391.630142703</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2708391.6301427032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>2766872.570048756</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>2828981.190366243</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2886905.941740202</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2886905.9417402018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>2938348.604487305</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>2999859.659541707</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3069543.333519712</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3069543.3335197121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3136881.87442212</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3136881.8744221199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3193843.71291263</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3193843.7129126298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3261062.693661111</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3261062.6936611109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3315190.587582214</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3315190.5875822138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3390027.185190043</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3390027.1851900429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3462200.139774857</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3462200.1397748571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3538257.708300688</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3538257.7083006878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3607224.102442525</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3607224.1024425249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3686499.272707174</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3686499.2727071741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3761787.953771534</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3761787.9537715339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3832574.48413238</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3832574.4841323802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3919903.124969666</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3919903.1249696659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4000040.887275721</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>4000040.8872757209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4105274.787055065</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>4105274.7870550649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4188225.765072839</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>4188225.7650728389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4279764.106187963</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>4279764.1061879629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4381704.411199722</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>4381704.4111997224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4473295.741680389</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>4473295.7416803893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4569507.239200761</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>4569507.2392007606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4714452.109837527</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>4714452.1098375274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4840167.329912013</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>4840167.3299120134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4978080.72122131</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>4978080.7212213101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5147107.90791702</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5147107.9079170199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5332118.046208522</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>5332118.0462085223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5469628.511825057</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5469628.5118250567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5643509.177654437</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5643509.1776544368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5862455.32935735</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5862455.3293573502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6093525.436429352</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>6093525.4364293516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
         <v>6292774.067402157</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6470861.247353902</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>6470861.2473539021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6696929.179530291</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>6696929.1795302909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6988483.734932832</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>6988483.7349328324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>7290715.995402745</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7588784.760795533</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7588784.7607955327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>7917649.31814071</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7917649.3181407098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>8306084.168848234</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>8306084.1688482342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8765371.106716568</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>8765371.1067165677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9167062.445157437</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9167062.4451574367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9730659.08177897</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>9730659.0817789696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
         <v>10433133.37852327</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>11241454.28274897</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>11241454.282748969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
         <v>12482846.60540569</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
         <v>13950583.45730711</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>15692246.19317723</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>15692246.193177231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>18184581.53127796</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>18184581.531277958</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>21539481.92579284</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>21539481.925792839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>28245053.90282083</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>28245053.902820829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>55631537.67878088</v>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>55631537.678780884</v>
       </c>
     </row>
   </sheetData>
